--- a/mbs-EP-v.1.0.1/Excel Files/mcpherson_2d/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.1/Excel Files/mcpherson_2d/mcpherson_2d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.1\Excel Files\mcpherson_2d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394D0DBE-FB29-4CB1-9F11-6287BFD417D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0E481F-FAE7-4DD3-9567-870861C5427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="4215" windowWidth="16200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="259">
   <si>
     <t>Mass</t>
   </si>
@@ -1286,82 +1286,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1373,19 +1379,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,15 +1406,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1421,6 +1421,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1431,9 +1434,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1893,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,22 +1913,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="J2" s="87" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="J2" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="67" t="s">
@@ -1945,7 +1945,7 @@
         <v>108</v>
       </c>
       <c r="K3" s="73"/>
-      <c r="L3" s="69"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="72" t="s">
         <v>133</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="K4" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="70"/>
+      <c r="L4" s="87"/>
       <c r="M4" s="40" t="s">
         <v>134</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="K5" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="70"/>
+      <c r="L5" s="87"/>
       <c r="M5" s="41" t="s">
         <v>5</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="K6" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="70"/>
+      <c r="L6" s="87"/>
       <c r="M6" s="41" t="s">
         <v>136</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="K7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="70"/>
+      <c r="L7" s="87"/>
       <c r="M7" s="41" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="K8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="L8" s="70"/>
+      <c r="L8" s="87"/>
       <c r="M8" s="41" t="s">
         <v>12</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="K9" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="70"/>
+      <c r="L9" s="87"/>
       <c r="M9" s="41" t="s">
         <v>13</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="K10" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="70"/>
+      <c r="L10" s="87"/>
       <c r="M10" s="41" t="s">
         <v>14</v>
       </c>
@@ -2173,7 +2173,7 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="49"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="70"/>
+      <c r="L11" s="87"/>
       <c r="M11" s="41" t="s">
         <v>138</v>
       </c>
@@ -2189,18 +2189,18 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
       <c r="J12" s="51"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="70"/>
+      <c r="L12" s="87"/>
       <c r="M12" s="41" t="s">
         <v>139</v>
       </c>
@@ -2216,22 +2216,22 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="64" t="s">
         <v>249</v>
       </c>
       <c r="E13" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
       <c r="J13" s="51"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="70"/>
+      <c r="L13" s="87"/>
       <c r="M13" s="41" t="s">
         <v>19</v>
       </c>
@@ -2247,20 +2247,20 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
       <c r="J14" s="53"/>
       <c r="K14" s="54"/>
-      <c r="L14" s="70"/>
+      <c r="L14" s="87"/>
       <c r="M14" s="41" t="s">
         <v>140</v>
       </c>
@@ -2276,22 +2276,22 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
       <c r="J15" s="72" t="s">
         <v>97</v>
       </c>
       <c r="K15" s="73"/>
-      <c r="L15" s="70"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="41" t="s">
         <v>15</v>
       </c>
@@ -2307,26 +2307,26 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="64" t="s">
         <v>249</v>
       </c>
       <c r="E16" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
       <c r="J16" s="41" t="s">
         <v>98</v>
       </c>
       <c r="K16" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="70"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="41" t="s">
         <v>141</v>
       </c>
@@ -2342,24 +2342,24 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="64"/>
       <c r="E17" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
       <c r="J17" s="41" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="L17" s="70"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="72" t="s">
         <v>153</v>
       </c>
@@ -2373,26 +2373,26 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="64" t="s">
         <v>249</v>
       </c>
       <c r="E18" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
       <c r="J18" s="41" t="s">
         <v>99</v>
       </c>
       <c r="K18" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="L18" s="70"/>
+      <c r="L18" s="87"/>
       <c r="M18" s="48" t="s">
         <v>163</v>
       </c>
@@ -2408,24 +2408,24 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
       <c r="J19" s="41" t="s">
         <v>100</v>
       </c>
       <c r="K19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="70"/>
+      <c r="L19" s="87"/>
       <c r="M19" s="42" t="s">
         <v>154</v>
       </c>
@@ -2441,26 +2441,26 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="64" t="s">
         <v>249</v>
       </c>
       <c r="E20" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
       <c r="J20" s="41" t="s">
         <v>106</v>
       </c>
       <c r="K20" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="L20" s="70"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="42" t="s">
         <v>155</v>
       </c>
@@ -2476,24 +2476,26 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="44"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="44" t="s">
+        <v>249</v>
+      </c>
       <c r="E21" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
       <c r="J21" s="41" t="s">
         <v>101</v>
       </c>
       <c r="K21" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="L21" s="70"/>
+      <c r="L21" s="87"/>
       <c r="M21" s="42" t="s">
         <v>156</v>
       </c>
@@ -2509,10 +2511,10 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="86"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="64">
         <v>2</v>
       </c>
@@ -2523,14 +2525,14 @@
         <v>151</v>
       </c>
       <c r="G22" s="85"/>
-      <c r="H22" s="65"/>
+      <c r="H22" s="66"/>
       <c r="J22" s="29" t="s">
         <v>112</v>
       </c>
       <c r="K22" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="L22" s="71"/>
+      <c r="L22" s="88"/>
       <c r="M22" s="42" t="s">
         <v>157</v>
       </c>
@@ -2546,15 +2548,15 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="64">
         <v>4</v>
       </c>
       <c r="E23" s="85"/>
       <c r="F23" s="85"/>
       <c r="G23" s="85"/>
-      <c r="H23" s="65"/>
+      <c r="H23" s="66"/>
       <c r="J23" s="74"/>
       <c r="K23" s="75"/>
       <c r="L23" s="75"/>
@@ -2569,13 +2571,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="64"/>
       <c r="E24" s="85"/>
       <c r="F24" s="85"/>
       <c r="G24" s="85"/>
-      <c r="H24" s="65"/>
+      <c r="H24" s="66"/>
       <c r="J24" s="77"/>
       <c r="K24" s="78"/>
       <c r="L24" s="78"/>
@@ -2590,13 +2592,13 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="64"/>
       <c r="E25" s="85"/>
       <c r="F25" s="85"/>
       <c r="G25" s="85"/>
-      <c r="H25" s="65"/>
+      <c r="H25" s="66"/>
       <c r="J25" s="77"/>
       <c r="K25" s="78"/>
       <c r="L25" s="78"/>
@@ -2611,13 +2613,13 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="64"/>
       <c r="E26" s="85"/>
       <c r="F26" s="85"/>
       <c r="G26" s="85"/>
-      <c r="H26" s="65"/>
+      <c r="H26" s="66"/>
       <c r="J26" s="77"/>
       <c r="K26" s="78"/>
       <c r="L26" s="78"/>
@@ -2632,13 +2634,13 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="64"/>
       <c r="E27" s="85"/>
       <c r="F27" s="85"/>
       <c r="G27" s="85"/>
-      <c r="H27" s="65"/>
+      <c r="H27" s="66"/>
       <c r="J27" s="77"/>
       <c r="K27" s="78"/>
       <c r="L27" s="78"/>
@@ -2653,13 +2655,13 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="64"/>
       <c r="E28" s="85"/>
       <c r="F28" s="85"/>
       <c r="G28" s="85"/>
-      <c r="H28" s="65"/>
+      <c r="H28" s="66"/>
       <c r="J28" s="77"/>
       <c r="K28" s="78"/>
       <c r="L28" s="78"/>
@@ -2674,13 +2676,13 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
       <c r="D29" s="64"/>
       <c r="E29" s="85"/>
       <c r="F29" s="85"/>
       <c r="G29" s="85"/>
-      <c r="H29" s="65"/>
+      <c r="H29" s="66"/>
       <c r="J29" s="77"/>
       <c r="K29" s="78"/>
       <c r="L29" s="78"/>
@@ -2830,6 +2832,23 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F13:H21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:G29"/>
+    <mergeCell ref="L3:L22"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2842,25 +2861,8 @@
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="H22:H29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:G29"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="L3:L22"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="B22:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F13:H21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2892,118 +2894,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="65" t="s">
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65" t="s">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="95" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95" t="s">
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="65" t="s">
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65" t="s">
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
       <c r="R2" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="95" t="s">
+      <c r="S2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="65" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="91" t="s">
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="65" t="s">
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65" t="s">
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65" t="s">
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3058,7 +3060,7 @@
         <v>37</v>
       </c>
       <c r="R3" s="85"/>
-      <c r="S3" s="94"/>
+      <c r="S3" s="91"/>
       <c r="T3" s="16" t="s">
         <v>63</v>
       </c>
@@ -6622,6 +6624,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6635,12 +6643,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6651,7 +6653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D44" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
@@ -6672,16 +6674,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6712,11 +6714,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6786,19 +6788,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6823,16 +6825,16 @@
       <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="103"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="102" t="s">
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -6868,22 +6870,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6908,21 +6910,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="96" t="s">
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96" t="s">
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -6976,19 +6978,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7013,16 +7015,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="96" t="s">
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7132,19 +7134,19 @@
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -7169,16 +7171,16 @@
       <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="98" t="s">
+      <c r="F18" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="96" t="s">
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -7215,19 +7217,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7252,16 +7254,16 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="98" t="s">
+      <c r="F22" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="96" t="s">
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
     </row>
     <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -7302,22 +7304,22 @@
     <row r="25" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="97" t="s">
+      <c r="A27" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
     </row>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
@@ -7335,44 +7337,44 @@
       <c r="E28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="98" t="s">
+      <c r="F28" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="96" t="s">
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96" t="s">
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
     </row>
     <row r="29" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="97"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
     </row>
     <row r="32" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
@@ -7390,26 +7392,26 @@
       <c r="E32" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="102" t="s">
+      <c r="F32" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="102" t="s">
+      <c r="G32" s="100"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="103"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="96" t="s">
+      <c r="J32" s="100"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96" t="s">
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="98"/>
       <c r="T32" s="59"/>
       <c r="U32" s="59"/>
       <c r="V32" s="59"/>
@@ -7477,14 +7479,14 @@
     </row>
     <row r="34" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -7558,12 +7560,12 @@
       <c r="X38" s="10"/>
     </row>
     <row r="39" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -7635,15 +7637,15 @@
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="99" t="s">
+      <c r="A43" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="101"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="104"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="10"/>
@@ -7663,11 +7665,11 @@
       <c r="D44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="96" t="s">
+      <c r="E44" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="10"/>
@@ -7883,21 +7885,6 @@
     <row r="66" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="F22:H22"/>
@@ -7914,6 +7901,21 @@
     <mergeCell ref="I32:K32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -8077,18 +8079,18 @@
       <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
       <c r="M2" s="121" t="s">
         <v>117</v>
       </c>
@@ -8098,14 +8100,14 @@
       <c r="Q2" s="122"/>
       <c r="R2" s="122"/>
       <c r="S2" s="122"/>
-      <c r="U2" s="110" t="s">
+      <c r="U2" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -8123,16 +8125,16 @@
       <c r="E3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="114" t="s">
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
       <c r="L3" s="61" t="s">
         <v>252</v>
       </c>
@@ -8155,12 +8157,12 @@
         <v>124</v>
       </c>
       <c r="S3" s="120"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
@@ -8206,12 +8208,12 @@
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
@@ -8253,20 +8255,20 @@
         <f>400000</f>
         <v>400000</v>
       </c>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="111"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="110"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="115" t="s">
@@ -8289,26 +8291,26 @@
       <c r="P7" s="116"/>
       <c r="Q7" s="116"/>
       <c r="R7" s="116"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="110"/>
-      <c r="Z7" s="110"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="117" t="s">
         <v>121</v>
       </c>
@@ -8317,12 +8319,12 @@
       <c r="P8" s="118"/>
       <c r="Q8" s="118"/>
       <c r="R8" s="119"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="111"/>
     </row>
     <row r="9" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
@@ -8340,16 +8342,16 @@
       <c r="E9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114" t="s">
+      <c r="G9" s="113"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
       <c r="L9" s="37" t="s">
         <v>116</v>
       </c>
@@ -8365,16 +8367,16 @@
       <c r="P9" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="Q9" s="111" t="s">
+      <c r="Q9" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="113"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110"/>
+      <c r="R9" s="114"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
@@ -8415,12 +8417,12 @@
         <v>6000</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="U10" s="110"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="110"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="111"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
@@ -8460,49 +8462,49 @@
         <f>10000</f>
         <v>10000</v>
       </c>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="110"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="111"/>
     </row>
     <row r="14" spans="1:26" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
@@ -8520,24 +8522,24 @@
       <c r="E14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="86" t="s">
+      <c r="J14" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86" t="s">
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
       <c r="P14" s="33" t="s">
         <v>80</v>
       </c>
@@ -8585,20 +8587,20 @@
       <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="102" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
@@ -8616,16 +8618,16 @@
       <c r="E18" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65" t="s">
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
       <c r="L18" s="30" t="s">
         <v>162</v>
       </c>
@@ -8674,14 +8676,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="A2:L2"/>
     <mergeCell ref="U2:Z13"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
@@ -8694,6 +8688,14 @@
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="M2:S2"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8716,21 +8718,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="F1" s="88" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="F1" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="I1" s="88" t="s">
+      <c r="G1" s="71"/>
+      <c r="I1" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="90"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
@@ -8748,12 +8750,12 @@
       <c r="G2" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
@@ -8765,10 +8767,10 @@
       <c r="G3" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
@@ -8780,10 +8782,10 @@
       <c r="G4" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
@@ -8795,10 +8797,10 @@
       <c r="G5" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
@@ -8810,10 +8812,10 @@
       <c r="G6" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
